--- a/docs/enterprise-attack-v17.0/enterprise-attack-v17.0-campaigns.xlsx
+++ b/docs/enterprise-attack-v17.0/enterprise-attack-v17.0-campaigns.xlsx
@@ -1334,10 +1334,10 @@
     <t>Pooja Natarajan, NEC Corporation India; Sareena Karapoola, NEC Corporation India; Shun Miyazaki, NEC Corporation</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
@@ -1367,7 +1367,7 @@
     <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -1379,13 +1379,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
+    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
   </si>
   <si>
     <t>(Citation: ORB Mandiant),(Citation: ORB Mandiant),</t>
@@ -1403,7 +1403,7 @@
     <t>(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Microsoft Albanian Government Attacks September 2022)</t>
   </si>
   <si>
-    <t>(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2022),(Citation: RecordedFuture RedEcho 2021),(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2022),</t>
+    <t>(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2021),(Citation: RecordedFuture RedEcho 2022),</t>
   </si>
   <si>
     <t>(Citation: Lumen J-Magic JAN 2025),(Citation: Lumen J-Magic JAN 2025),</t>
@@ -1424,7 +1424,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -1439,7 +1439,7 @@
     <t>(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),</t>
   </si>
   <si>
-    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -1448,22 +1448,22 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler Pikabot 2024),(Citation: Elastic Pikabot 2024),(Citation: Elastic Pikabot 2024),</t>
+    <t>(Citation: Elastic Pikabot 2024),(Citation: Zscaler Pikabot 2024),(Citation: Elastic Pikabot 2024),</t>
   </si>
   <si>
     <t>(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025)</t>
   </si>
   <si>
-    <t>,(Citation: ORB Mandiant),(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant)</t>
+    <t>,(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant),(Citation: ORB Mandiant)</t>
   </si>
   <si>
     <t>,(Citation: Oligo ShadowRay Campaign MAR 2024),</t>
   </si>
   <si>
-    <t>(Citation: MSTIC NOBELIUM Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Volexity SolarWinds),(Citation: Secureworks IRON RITUAL Profile),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC Nobelium Oct 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024)</t>
